--- a/updatelist_kaigai.xlsx
+++ b/updatelist_kaigai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/narawanozomi/Documents/4pro/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAB73BA-F106-C24E-8E39-44BDF2612E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C1033D-B5B9-5A43-BEE6-F46887E487FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="197">
   <si>
     <t>問題</t>
   </si>
@@ -1467,13 +1467,88 @@
       </rPr>
       <t>通行人に道を尋ねて案内してもらう</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>選択肢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">センタクシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>選択肢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">センタクシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>選択肢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t xml:space="preserve">センタクシ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1517,6 +1592,19 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1538,7 +1626,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1550,6 +1638,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1770,8 +1859,8 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1790,6 +1879,15 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2">

--- a/updatelist_kaigai.xlsx
+++ b/updatelist_kaigai.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/narawanozomi/Documents/4pro/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44C1033D-B5B9-5A43-BEE6-F46887E487FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18F9DF8-9D11-A947-B279-1BF442F9602D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,12 +28,6 @@
     <t>回答</t>
   </si>
   <si>
-    <t>問題: 海外旅行時に持ち歩くべきものは次のうちどれでしょうか？
-A) 多額の現金と貴重品
-B) パスポートとクレジットカード
-C) 大量の荷物</t>
-  </si>
-  <si>
     <t xml:space="preserve">回答：B) パスポートとクレジットカード
 </t>
   </si>
@@ -47,12 +41,6 @@
     <t>C) 大量の荷物</t>
   </si>
   <si>
-    <t>問題: 海外での安全対策について、何が重要だと言えるでしょうか？
-A) 現地の言葉を完璧に話せること
-B) 渡航先の安全情報を事前に収集すること
-C) 旅行中に無計画な行動をすること</t>
-  </si>
-  <si>
     <t xml:space="preserve">回答：B) 渡航先の安全情報を事前に収集すること
 </t>
   </si>
@@ -66,12 +54,6 @@
     <t>C) 旅行中に無計画な行動をすること</t>
   </si>
   <si>
-    <t>問題: 海外旅行中、危険を回避するために何が役立つでしょうか？
-A) 現地の法律を無視すること
-B) 現地の文化や習慣を尊重すること
-C) 大声で他の観光客に指示を出すこと</t>
-  </si>
-  <si>
     <t xml:space="preserve">回答：B) 現地の文化や習慣を尊重すること
 </t>
   </si>
@@ -85,12 +67,6 @@
     <t>C) 大声で他の観光客に指示を出すこと</t>
   </si>
   <si>
-    <t>問題: テロに対する心構えの一つとして、どのような行動が重要だと思いますか？
-a) 物音を立てないようにする
-b) 携帯電話の音を大きくする
-c) 外部の救助を待つ</t>
-  </si>
-  <si>
     <t xml:space="preserve">回答：a) 物音を立てないようにする
 </t>
   </si>
@@ -104,12 +80,6 @@
     <t>c) 外部の救助を待つ</t>
   </si>
   <si>
-    <t>問題: テロの標的となりやすい時期や場所を避けるために、どのような行動が適切だと思いますか？
-a) 大規模な行事に参加する
-b) 人の集まりや移動が増える時期に警戒する
-c) 特定の時期にテロの標的となりやすい場所に近づく</t>
-  </si>
-  <si>
     <t xml:space="preserve">回答：b) 人の集まりや移動が増える時期に警戒する
 </t>
   </si>
@@ -123,12 +93,6 @@
     <t>c) 特定の時期にテロの標的となりやすい場所に近づく</t>
   </si>
   <si>
-    <t>問題: テロに遭遇した場合、どのような行動が最も適切だと思いますか？
-a) 犯人に気付かれないようにする
-b) 安全な場所に避難し、外部の救助を要請する
-c) 物音を立てて犯人の注意を引く</t>
-  </si>
-  <si>
     <t xml:space="preserve">回答：b) 安全な場所に避難し、外部の救助を要請する
 </t>
   </si>
@@ -142,12 +106,6 @@
     <t>c) 物音を立てて犯人の注意を引く</t>
   </si>
   <si>
-    <t>問題: 海外旅行前に必要な保険について、どのようなことを検討すべきでしょうか？
-a) 旅行保険の加入
-b) 自動車保険の更新
-c) 生命保険の見直し</t>
-  </si>
-  <si>
     <t xml:space="preserve">回答：a) 旅行保険の加入
 </t>
   </si>
@@ -161,12 +119,6 @@
     <t>c) 生命保険の見直し</t>
   </si>
   <si>
-    <t>問題: 海外旅行前に家族や友人に伝えておくべき情報は？
-a) 旅行先の気候
-b) 滞在予定や現地の連絡先
-c) 旅行中の服装</t>
-  </si>
-  <si>
     <t xml:space="preserve">回答：b) 滞在予定や現地の連絡先
 </t>
   </si>
@@ -180,12 +132,6 @@
     <t>c) 旅行中の服装</t>
   </si>
   <si>
-    <t>問題: 海外旅行前に確認しておくべき情報源はどれでしょうか？
-a) インターネットやガイドブック
-b) 雑誌の旅行特集
-c) テレビ番組の旅行情報</t>
-  </si>
-  <si>
     <t xml:space="preserve">回答：a) インターネットやガイドブック
 </t>
   </si>
@@ -199,12 +145,6 @@
     <t>c) テレビ番組の旅行情報</t>
   </si>
   <si>
-    <t>問題: 以下の中で、旅行中に注意すべきことはどれでしょうか？
-A) 旅行前に家族に詳細な旅行日程を連絡すること
-B) 旅行中に計画したルートを安易に変更すること
-C) 旅行中に現金を大金持ち歩くこと</t>
-  </si>
-  <si>
     <t xml:space="preserve">回答：A) 旅行前に家族に詳細な旅行日程を連絡すること
 </t>
   </si>
@@ -218,12 +158,6 @@
     <t>C) 旅行中に現金を大金持ち歩くこと</t>
   </si>
   <si>
-    <t>問題: レンタカーを利用する際に重要なことはどれでしょうか？
-A) 料金の割安感に惹かれて会社を選ぶこと
-B) 安さに惹かれて選ぶ際に律を守ること
-C) 信用のおける会社を選ぶこと</t>
-  </si>
-  <si>
     <t xml:space="preserve">回答：C) 信用のおける会社を選ぶこと
 </t>
   </si>
@@ -237,12 +171,6 @@
     <t>C) 信用のおける会社を選ぶこと</t>
   </si>
   <si>
-    <t>問題: 自然体験やドライブ中に遭遇する可能性のあるトラブルを避けるために、何を事前に確認すべきでしょうか？
-a) 事前にルートを詳細に確認する
-b) 家族や友人に旅行日程を連絡する
-c) 家を空ける際に窓を開けっ放しにする</t>
-  </si>
-  <si>
     <t xml:space="preserve">回答：a) 事前にルートを詳細に確認する
 </t>
   </si>
@@ -256,12 +184,6 @@
     <t>c) 家を空ける際に窓を開けっ放しにする</t>
   </si>
   <si>
-    <t>問題: 自然体験やドライブ中に安全を確保するために、どのような行動が重要でしょうか？
-a) 過度な肌の露出を避ける
-b) 知らない人の車に乗る
-c) 異性と二人きりになる</t>
-  </si>
-  <si>
     <t xml:space="preserve">回答：a) 過度な肌の露出を避ける
 </t>
   </si>
@@ -275,12 +197,6 @@
     <t>c) 異性と二人きりになる</t>
   </si>
   <si>
-    <t>問題: 自然災害に備える際、大切なことはどれでしょうか？  
-a) 家を出る前に窓を開けっ放しにしておく
-b) 家族や友人に旅行日程を連絡する
-c) 電話を使って雷を呼び寄せる</t>
-  </si>
-  <si>
     <t xml:space="preserve">回答: b) 家族や友人に旅行日程を連絡する
 </t>
   </si>
@@ -291,12 +207,6 @@
     <t>c) 電話を使って雷を呼び寄せる</t>
   </si>
   <si>
-    <t>問題: 自然災害が発生した際、適切な行動はどれでしょうか？  
-a) 避難勧告が出たら無視して自宅に留まる
-b) 現地の日本国大使館や総領事館に連絡する
-c) 被災地に近づいて状況を確認する</t>
-  </si>
-  <si>
     <t xml:space="preserve">回答: b) 現地の日本国大使館や総領事館に連絡する
 </t>
   </si>
@@ -310,12 +220,6 @@
     <t>c) 被災地に近づいて状況を確認する</t>
   </si>
   <si>
-    <t>問題: 登山中に高山病の症状が出た場合、どのような行動が適切でしょうか？  
-a) そのまま登山を続けて高山病を克服する
-b) 高山病の症状を無視して他の登山者に相談する
-c) 適切な処置を施すために下山する</t>
-  </si>
-  <si>
     <t xml:space="preserve">回答: c) 適切な処置を施すために下山する
 </t>
   </si>
@@ -329,12 +233,6 @@
     <t>c) 適切な処置を施すために下山する</t>
   </si>
   <si>
-    <t>問題: 感染症の原因として最も適切なものは？
-A) 病原体（感染源）
-B) 感染経路
-C) 宿主の抵抗力</t>
-  </si>
-  <si>
     <t xml:space="preserve">回答: A) 病原体（感染源）
 </t>
   </si>
@@ -348,12 +246,6 @@
     <t>C) 宿主の抵抗力</t>
   </si>
   <si>
-    <t>問題: 旅行中に現地のレンタカー会社でトラブルが発生した場合、大学生が取るべき行動はどれか？
-A) 現地の警察に直接連絡する
-B) 旅行会社に連絡してサポートを求める
-C) 自力で問題を解決しようとする</t>
-  </si>
-  <si>
     <t xml:space="preserve">回答: B) 旅行会社に連絡してサポートを求める
 </t>
   </si>
@@ -367,12 +259,6 @@
     <t>C) 自力で問題を解決しようとする</t>
   </si>
   <si>
-    <t>問題: 旅行先で急な緊急事態が発生した場合、大学生が取るべき行動はどれか？
-A) 現地の言葉で助けを求める
-B) 日本国大使館や総領事館に連絡して支援を受ける
-C) 他の旅行者に助けを求める</t>
-  </si>
-  <si>
     <t xml:space="preserve">回答: B) 日本国大使館や総領事館に連絡して支援を受ける
 </t>
   </si>
@@ -386,12 +272,6 @@
     <t>C) 他の旅行者に助けを求める</t>
   </si>
   <si>
-    <t>問題: 海外での緊急時に役立つものは？
-A) 旅行保険
-B) スマートフォン
-C) ビーチサンダル</t>
-  </si>
-  <si>
     <t xml:space="preserve">回答: A) 旅行保険
 </t>
   </si>
@@ -405,12 +285,6 @@
     <t>C) ビーチサンダル</t>
   </si>
   <si>
-    <t>問題: 浛外旅行中に気をつけるべきことは？
-A) 現地の言葉を覚える
-B) 地元の食べ物を避ける
-C) 夜遅くまで外出しない</t>
-  </si>
-  <si>
     <t xml:space="preserve">回答: C) 夜遅くまで外出しない
 </t>
   </si>
@@ -436,12 +310,6 @@
 </t>
   </si>
   <si>
-    <t>問題: 海外旅行前に必ずチェックすべき情報はどれでしょうか？
-A) パスポートの有効期限
-B) 電子機器の充電
-C) 荷物の重量制限</t>
-  </si>
-  <si>
     <t xml:space="preserve">回答: A) パスポートの有効期限
 </t>
   </si>
@@ -455,12 +323,6 @@
     <t>C) 荷物の重量制限</t>
   </si>
   <si>
-    <t>問題: 海外旅行前に家族や友人に伝えておくべき情報は何でしょうか？
-A) 滞在予定や現地の連絡先
-B) 旅行中の服装
-C) お土産のリクエスト</t>
-  </si>
-  <si>
     <t xml:space="preserve">回答: A) 滞在予定や現地の連絡先
 </t>
   </si>
@@ -474,12 +336,6 @@
     <t>C) お土産のリクエスト</t>
   </si>
   <si>
-    <t>問題: 海外旅行前に準備しておくべき予防接種は何でしょうか？
-A) インフルエンザ
-B) コレラ
-C) 風邪</t>
-  </si>
-  <si>
     <t xml:space="preserve">回答： B) コレラ
 </t>
   </si>
@@ -501,12 +357,6 @@
 </t>
   </si>
   <si>
-    <t>問題: 自然体験やドライブ中に遭遇する可能性のあるトラブルを避けるために、事前にどのような準備をするべきでしょうか？
-a) 事前にルートを詳細に確認する
-b) 家族や友人に旅程を連絡する
-c) 旅行中にルートを変更する</t>
-  </si>
-  <si>
     <t xml:space="preserve">回答: a) 事前にルートを詳細に確認する
 </t>
   </si>
@@ -517,12 +367,6 @@
     <t>c) 旅行中にルートを変更する</t>
   </si>
   <si>
-    <t>問題: 自然体験やドライブ中に留意すべき安全対策として、以下のうちどれが重要ですか？
-a) 過度な肌の露出を避ける
-b) 異性からのアプローチに浮かれない
-c) 異性と二人きりにならない</t>
-  </si>
-  <si>
     <t xml:space="preserve">回答: a) 過度な肌の露出を避ける
 </t>
   </si>
@@ -533,12 +377,6 @@
     <t>c) 異性と二人きりにならない</t>
   </si>
   <si>
-    <t>問題: 自然体験やドライブ中にレンタカーを利用する際、信頼できる会社を選ぶために重要なポイントは？
-a) 料金の割安感に惹かれる
-b) 車両のコンディションを確認する
-c) 信頼できる会社は割高でも選ぶ</t>
-  </si>
-  <si>
     <t xml:space="preserve">回答: b) 車両のコンディションを確認する
 </t>
   </si>
@@ -552,12 +390,6 @@
     <t>c) 信頼できる会社は割高でも選ぶ</t>
   </si>
   <si>
-    <t>問題: 自然災害が発生した際、どのような行動が適切でしょうか？
-a) 自分の安全を最優先に考え、適切な避難行動を取る
-b) SNSで友達に状況を報告する
-c) 災害が過ぎた後に被害状況を確認する</t>
-  </si>
-  <si>
     <t xml:space="preserve">回答: a) 自分の安全を最優先に考え、適切な避難行動を取る
 </t>
   </si>
@@ -571,12 +403,6 @@
     <t>c) 災害が過ぎた後に被害状況を確認する</t>
   </si>
   <si>
-    <t>問題: 自然災害に備える際、大切な連絡先を残す際のポイントは？
-a) LINEやSNSに連絡先を残す
-b) 家族や留守宅に連絡先を残す
-c) 自分だけで対応することが大切</t>
-  </si>
-  <si>
     <t xml:space="preserve">回答: b) 家族や留守宅に連絡先を残す
 </t>
   </si>
@@ -590,12 +416,6 @@
     <t>c) 自分だけで対応することが大切</t>
   </si>
   <si>
-    <t>問題： 感染症の原因として最も適切なものは？
-A) 運動不足
-B) 病原体
-C) 睡眠不足</t>
-  </si>
-  <si>
     <t xml:space="preserve">回答: B) 病原体
 </t>
   </si>
@@ -609,12 +429,6 @@
     <t>C) 睡眠不足</t>
   </si>
   <si>
-    <t>問題: 感染症の予防に効果的な行動は？
-A) マスクの着用
-B) ストレスの溜め込み
-C) 過度なアルコール摂取</t>
-  </si>
-  <si>
     <t xml:space="preserve">回答: A) マスクの着用
 </t>
   </si>
@@ -628,12 +442,6 @@
     <t>C) 過度なアルコール摂取</t>
   </si>
   <si>
-    <t>問題: 感染症にかかった場合、早めに行うべき行動は？
-A) 自己流で治療を試みる
-B) 医師の診察を受ける
-C) 他人との接触を増やす</t>
-  </si>
-  <si>
     <t xml:space="preserve">回答: B) 医師の診察を受ける
 </t>
   </si>
@@ -655,85 +463,6 @@
 </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>問題：テロに遭遇した場合、どのような行動が重要ですか？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>Ａ：目立つ服装を避ける</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>Ｂ：同じ経路を使う行動を避ける</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>Ｃ：大声で叫ぶ</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Ａ：目立つ服装を避ける</t>
   </si>
   <si>
@@ -743,85 +472,6 @@
     <t>Ｃ：大声で叫ぶ</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>問題：テロを予防するために大切なことは何でしょう？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>Ａ：目立つ行動をする</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>Ｂ：同じ時刻に同じ経路を使う</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>Ｃ：予測されやすいパターン化された行動を避ける</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Ａ：目立つ行動をする</t>
   </si>
   <si>
@@ -831,85 +481,6 @@
     <t>Ｃ：予測されやすいパターン化された行動を避ける</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>問題：テロに遭遇した場合、被害を最小限にとどめるために重要な対策は？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>Ａ：大声で叫ぶ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>Ｂ：逃げる</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>Ｃ：隠れる</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Ａ：大声で叫ぶ</t>
   </si>
   <si>
@@ -920,82 +491,51 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>問題：レンタカーを選ぶ際に、どのような点に注意すべきでしょうか？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
       </rPr>
       <t>）料金が安いかどうかだけを重視する　</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
       </rPr>
       <t>）車の状態や信頼性を重視する　</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
+  </si>
+  <si>
+    <r>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
       </rPr>
       <t>）どんな車種があるかだけを確認する</t>
     </r>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -1010,7 +550,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>）料金が安いかどうかだけを重視する　</t>
+      <t>）パニックになって行動する</t>
     </r>
   </si>
   <si>
@@ -1026,7 +566,7 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>）車の状態や信頼性を重視する　</t>
+      <t>）現地の警察に連絡する　</t>
     </r>
   </si>
   <si>
@@ -1042,91 +582,12 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>）どんな車種があるかだけを確認する</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>問題：旅行中に予期せぬトラブルに遭遇した場合、どのように対処すべきでしょうか？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>）パニックになって行動する</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>）現地の警察に連絡する　</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
       <t>）旅行前に保険に加入しておく</t>
     </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A. </t>
     </r>
     <r>
       <rPr>
@@ -1137,12 +598,12 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>）パニックになって行動する</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>B</t>
+      <t>病院に行って医師の診断を受ける</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">B. </t>
     </r>
     <r>
       <rPr>
@@ -1153,12 +614,12 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>）現地の警察に連絡する　</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>C</t>
+      <t>水分補給をしっかりと行う</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C. </t>
     </r>
     <r>
       <rPr>
@@ -1169,256 +630,8 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>）旅行前に保険に加入しておく</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>問題</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>海外で食中毒にかかったら、あなたはどうする？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  
-A. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>病院に行って医師の診断を受ける</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-B. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>水分補給をしっかりと行う</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-C. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
       <t>日本の大使館や領事館に連絡する</t>
     </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">A. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>病院に行って医師の診断を受ける</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">B. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>水分補給をしっかりと行う</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">C. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>日本の大使館や領事館に連絡する</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>問題</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>旅行中に迷子になったら、あなたはどうする？</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  
-A. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>近くの店舗や警察署に助けを求める</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-B. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>スマートフォンの地図アプリを使って自力で道を探す</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-C. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t>通行人に道を尋ねて案内してもらう</t>
-    </r>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <r>
@@ -1541,6 +754,3114 @@
     <rPh sb="0" eb="3">
       <t xml:space="preserve">センタクシ </t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>海外旅行時に持ち歩くべきものは次のうちどれでしょうか？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+A) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>多額の現金と貴重品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>パスポートとクレジットカード</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>大量の荷物</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>海外での安全対策について、何が重要だと言えるでしょうか？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+A) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>現地の言葉を完璧に話せること</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>渡航先の安全情報を事前に収集すること</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>旅行中に無計画な行動をすること</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>海外旅行中、危険を回避するために何が役立つでしょうか？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+A) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>現地の法律を無視すること</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>現地の文化や習慣を尊重すること</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>大声で他の観光客に指示を出すこと</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テロに対する心構えの一つとして、どのような行動が重要だと思いますか？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+a) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>物音を立てないようにする</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+b) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>携帯電話の音を大きくする</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+c) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>外部の救助を待つ</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テロの標的となりやすい時期や場所を避けるために、どのような行動が適切だと思いますか？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+a) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>大規模な行事に参加する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+b) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>人の集まりや移動が増える時期に警戒する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+c) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>特定の時期にテロの標的となりやすい場所に近づく</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テロに遭遇した場合、どのような行動が最も適切だと思いますか？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+a) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>犯人に気付かれないようにする</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+b) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>安全な場所に避難し、外部の救助を要請する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+c) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>物音を立てて犯人の注意を引く</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>海外旅行前に必要な保険について、どのようなことを検討すべきでしょうか？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+a) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>旅行保険の加入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+b) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>自動車保険の更新</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+c) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>生命保険の見直し</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>海外旅行前に家族や友人に伝えておくべき情報は？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+a) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>旅行先の気候</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+b) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>滞在予定や現地の連絡先</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+c) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>旅行中の服装</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>海外旅行前に確認しておくべき情報源はどれでしょうか？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+a) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>インターネットやガイドブック</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+b) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>雑誌の旅行特集</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+c) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テレビ番組の旅行情報</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>以下の中で、旅行中に注意すべきことはどれでしょうか？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+A) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>旅行前に家族に詳細な旅行日程を連絡すること</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>旅行中に計画したルートを安易に変更すること</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>旅行中に現金を大金持ち歩くこと</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>レンタカーを利用する際に重要なことはどれでしょうか？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+A) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>料金の割安感に惹かれて会社を選ぶこと</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>安さに惹かれて選ぶ際に律を守ること</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>信用のおける会社を選ぶこと</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>自然体験やドライブ中に遭遇する可能性のあるトラブルを避けるために、何を事前に確認すべきでしょうか？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+a) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>事前にルートを詳細に確認する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+b) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>家族や友人に旅行日程を連絡する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+c) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>家を空ける際に窓を開けっ放しにする</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>自然体験やドライブ中に安全を確保するために、どのような行動が重要でしょうか？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+a) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>過度な肌の露出を避ける</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+b) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>知らない人の車に乗る</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+c) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>異性と二人きりになる</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>自然災害に備える際、大切なことはどれでしょうか？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  
+a) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>家を出る前に窓を開けっ放しにしておく</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+b) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>家族や友人に旅行日程を連絡する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+c) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>電話を使って雷を呼び寄せる</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>自然災害が発生した際、適切な行動はどれでしょうか？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  
+a) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>避難勧告が出たら無視して自宅に留まる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+b) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>現地の日本国大使館や総領事館に連絡する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+c) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>被災地に近づいて状況を確認する</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>登山中に高山病の症状が出た場合、どのような行動が適切でしょうか？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  
+a) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>そのまま登山を続けて高山病を克服する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+b) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>高山病の症状を無視して他の登山者に相談する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+c) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>適切な処置を施すために下山する</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>感染症の原因として最も適切なものは？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+A) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>病原体（感染源）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>感染経路</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>宿主の抵抗力</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>旅行中に現地のレンタカー会社でトラブルが発生した場合、大学生が取るべき行動はどれか？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+A) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>現地の警察に直接連絡する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>旅行会社に連絡してサポートを求める</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>自力で問題を解決しようとする</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>旅行先で急な緊急事態が発生した場合、大学生が取るべき行動はどれか？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+A) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>現地の言葉で助けを求める</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>日本国大使館や総領事館に連絡して支援を受ける</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>他の旅行者に助けを求める</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>海外での緊急時に役立つものは？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+A) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>旅行保険</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>スマートフォン</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ビーチサンダル</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テロに遭遇した場合、どのような行動が重要ですか？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Ａ：目立つ服装を避ける</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Ｂ：同じ経路を使う行動を避ける</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Ｃ：大声で叫ぶ</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テロを予防するために大切なことは何でしょう？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Ａ：目立つ行動をする</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Ｂ：同じ時刻に同じ経路を使う</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Ｃ：予測されやすいパターン化された行動を避ける</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>海外旅行中に気をつけるべきことは？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+A) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>現地の言葉を覚える</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>地元の食べ物を避ける</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>夜遅くまで外出しない</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t xml:space="preserve">カイガイ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>テロに遭遇した場合、被害を最小限にとどめるために重要な対策は？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Ａ：大声で叫ぶ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Ｂ：逃げる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Ｃ：隠れる</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>海外旅行前に必ずチェックすべき情報はどれでしょうか？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+A) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>パスポートの有効期限</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>電子機器の充電</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>荷物の重量制限</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>海外旅行前に家族や友人に伝えておくべき情報は何でしょうか？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+A) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>滞在予定や現地の連絡先</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>旅行中の服装</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>お土産のリクエスト</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>海外旅行前に準備しておくべき予防接種は何でしょうか？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+A) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>インフルエンザ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>コレラ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>風邪</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>レンタカーを選ぶ際に、どのような点に注意すべきでしょうか？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）料金が安いかどうかだけを重視する　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）車の状態や信頼性を重視する　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）どんな車種があるかだけを確認する</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>旅行中に予期せぬトラブルに遭遇した場合、どのように対処すべきでしょうか？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）パニックになって行動する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）現地の警察に連絡する　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）旅行前に保険に加入しておく</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>自然体験やドライブ中に遭遇する可能性のあるトラブルを避けるために、事前にどのような準備をするべきでしょうか？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+a) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>事前にルートを詳細に確認する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+b) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>家族や友人に旅程を連絡する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+c) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>旅行中にルートを変更する</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>自然体験やドライブ中に留意すべき安全対策として、以下のうちどれが重要ですか？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+a) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>過度な肌の露出を避ける</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+b) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>異性からのアプローチに浮かれない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+c) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>異性と二人きりにならない</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>自然体験やドライブ中にレンタカーを利用する際、信頼できる会社を選ぶために重要なポイントは？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+a) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>料金の割安感に惹かれる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+b) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>車両のコンディションを確認する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+c) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>信頼できる会社は割高でも選ぶ</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>自然災害が発生した際、どのような行動が適切でしょうか？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+a) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>自分の安全を最優先に考え、適切な避難行動を取る</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+b) SNS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>で友達に状況を報告する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+c) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>災害が過ぎた後に被害状況を確認する</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>自然災害に備える際、大切な連絡先を残す際のポイントは？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+a) LINE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>や</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SNS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>に連絡先を残す</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+b) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>家族や留守宅に連絡先を残す</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+c) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>自分だけで対応することが大切</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>感染症の原因として最も適切なものは？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+A) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>運動不足</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>病原体</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>睡眠不足</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>感染症の予防に効果的な行動は？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+A) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>マスクの着用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ストレスの溜め込み</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>過度なアルコール摂取</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>感染症にかかった場合、早めに行うべき行動は？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+A) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>自己流で治療を試みる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>医師の診察を受ける</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>他人との接触を増やす</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>海外で食中毒にかかったら、あなたはどうする？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  
+A. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>病院に行って医師の診断を受ける</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>水分補給をしっかりと行う</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>日本の大使館や領事館に連絡する</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>旅行中に迷子になったら、あなたはどうする？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  
+A. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>近くの店舗や警察署に助けを求める</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+B. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>スマートフォンの地図アプリを使って自力で道を探す</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+C. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>通行人に道を尋ねて案内してもらう</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1859,8 +4180,8 @@
   </sheetPr>
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="93" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1880,13 +4201,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>196</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1894,19 +4215,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1914,19 +4235,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1934,19 +4255,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="F4" t="s">
         <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1954,19 +4275,19 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1974,19 +4295,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>162</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1994,19 +4315,19 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>163</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2014,19 +4335,19 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>164</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2034,19 +4355,19 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2054,19 +4375,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>42</v>
+        <v>166</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2074,19 +4395,19 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>167</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2094,19 +4415,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>52</v>
+        <v>168</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2114,19 +4435,19 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>169</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2134,19 +4455,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>62</v>
+        <v>170</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2154,19 +4475,19 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>67</v>
+        <v>171</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2174,19 +4495,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>71</v>
+        <v>172</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2194,19 +4515,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>76</v>
+        <v>173</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D17" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="E17" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F17" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2214,19 +4535,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>81</v>
+        <v>174</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="D18" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="F18" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2234,19 +4555,19 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>86</v>
+        <v>175</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="F19" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2254,19 +4575,19 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>91</v>
+        <v>176</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2274,19 +4595,19 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="F21" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2294,19 +4615,19 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>101</v>
+        <v>180</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="E22" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="F22" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2314,19 +4635,19 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2334,19 +4655,19 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2354,19 +4675,19 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2374,19 +4695,19 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="E26" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="F26" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2394,19 +4715,19 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>114</v>
+        <v>183</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="D27" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="E27" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="F27" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2414,19 +4735,19 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D28" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="E28" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="F28" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2434,19 +4755,19 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="D29" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="E29" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="F29" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2454,19 +4775,19 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="D30" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="E30" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="F30" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2474,19 +4795,19 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>126</v>
+        <v>187</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="D31" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="E31" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="F31" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2494,19 +4815,19 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>130</v>
+        <v>188</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E32" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="F32" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2514,19 +4835,19 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>134</v>
+        <v>189</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="D33" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="E33" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="F33" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2534,19 +4855,19 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>139</v>
+        <v>190</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="D34" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="E34" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="F34" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2554,19 +4875,19 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="D35" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="E35" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="F35" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2574,19 +4895,19 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>149</v>
+        <v>192</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="D36" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="E36" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="F36" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2594,19 +4915,19 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="D37" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="E37" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="F37" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2614,19 +4935,19 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="D38" t="s">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="E38" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="F38" t="s">
-        <v>163</v>
+        <v>131</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2634,19 +4955,19 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="D39" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="E39" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="F39" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2654,19 +4975,19 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>165</v>
+        <v>133</v>
       </c>
       <c r="D40" t="s">
-        <v>191</v>
+        <v>152</v>
       </c>
       <c r="E40" t="s">
-        <v>192</v>
+        <v>153</v>
       </c>
       <c r="F40" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
